--- a/experiment result/128_0.2_40_zs40_kappa_lp.xlsx
+++ b/experiment result/128_0.2_40_zs40_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05581431625848859</v>
+        <v>0.01010309130199203</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05527243703183009</v>
+        <v>0.01812786640377359</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06399183792226663</v>
+        <v>0.01532566448480274</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0462566807808804</v>
+        <v>0.02230909029793427</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04906204548432833</v>
+        <v>0.005591212778948243</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06401765655611905</v>
+        <v>0.02699927894881609</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06207281536636291</v>
+        <v>0.02863879915401315</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05153268209214155</v>
+        <v>0.01408548754735189</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05187892897162451</v>
+        <v>0.02459148473605139</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06399060511786689</v>
+        <v>0.0413132227941677</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.06629293453468399</v>
+        <v>0.009141884002913553</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07856351256792105</v>
+        <v>0.05196972421315627</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.07757319881638523</v>
+        <v>0.00843235010062377</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.07023630842859271</v>
+        <v>0.01428269223451283</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.06201924694523984</v>
+        <v>0.0152093314760535</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06629021580548036</v>
+        <v>0.01248604538088945</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.06349205953267871</v>
+        <v>0.0168081185029421</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.05855863317400203</v>
+        <v>0.002776540279736</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05799967409850153</v>
+        <v>0.03119391682038798</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.06268919243508377</v>
+        <v>0.02548124020910233</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.04314084913731836</v>
+        <v>0.009286111450437109</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.04307236540169513</v>
+        <v>0.003737697152118182</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06904507900439125</v>
+        <v>0.02684885050861265</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04103898207953751</v>
+        <v>0.00216511158124114</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.04376588123011171</v>
+        <v>0.002399050179772608</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.08991722800828089</v>
+        <v>0.0372804680323871</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.06754251118042655</v>
+        <v>0.01000102629947376</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.04680116865235974</v>
+        <v>0.02700983102696471</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05087963797393117</v>
+        <v>0.02385214669033468</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.07392380351775406</v>
+        <v>0.04384955553581792</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04145343165057989</v>
+        <v>0.0004206084848598016</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.05383986807803028</v>
+        <v>0.004681243231865554</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.07195409747754103</v>
+        <v>0.04882863017338762</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0455224489510523</v>
+        <v>0.01407417664520245</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.06148178596283995</v>
+        <v>0.02769278558765404</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.06843749472306446</v>
+        <v>0.05549908400429012</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.05078698838712405</v>
+        <v>0.01287930448895268</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.07894923886174966</v>
+        <v>0.01571980588968947</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.05471028092314145</v>
+        <v>0.01541261313586855</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.06563909096749826</v>
+        <v>0.03812046163872919</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.06646925041970306</v>
+        <v>0.06086420237894122</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.04220986293726849</v>
+        <v>0.006956213642282029</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.05413920270249847</v>
+        <v>0.05332698063256314</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.05102178961944089</v>
+        <v>0.01781373052231971</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.04720618298919096</v>
+        <v>0.02635958116602477</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.07192531296344573</v>
+        <v>0.0228423083104616</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.07062504319558263</v>
+        <v>0.07917845668714719</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.05477180983470377</v>
+        <v>0.005008339082271844</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.06027962644786691</v>
+        <v>0.006829398749652563</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.06076496707366191</v>
+        <v>0.00192682709138618</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.06006621246641675</v>
+        <v>0.02770428795637667</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0621094558922974</v>
+        <v>0.02765142632377991</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.03060658546179027</v>
+        <v>0.001617693693281442</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.03889310684831834</v>
+        <v>0.003509559853307934</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.05482754282041037</v>
+        <v>0.01200644594747186</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06217000426575795</v>
+        <v>0.02845824284608812</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.05443315533120001</v>
+        <v>0.01059634949755359</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06076610208781598</v>
+        <v>0.02578501414495434</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.05847791680691657</v>
+        <v>0.008835710925704393</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.07137674855511353</v>
+        <v>0.01451500367430441</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.03305478518425677</v>
+        <v>0.0003707004019401266</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.03889975717759302</v>
+        <v>0.006105054159498234</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.05148568261987142</v>
+        <v>0.009460541106818323</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.03921952439975009</v>
+        <v>0.001873599181516881</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.05584354211384883</v>
+        <v>0.009864231647011067</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.06535372732175738</v>
+        <v>0.02435058090904224</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.06486288809733694</v>
+        <v>0.02015282605319183</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.05226842546651778</v>
+        <v>0.008535269882141931</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.05337824801821032</v>
+        <v>0.009859179536276718</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.05218727161774959</v>
+        <v>0.008696133201298629</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.06108611642241824</v>
+        <v>0.02306043602759631</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.04752020682534897</v>
+        <v>0.00225733200723116</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.04658709595228996</v>
+        <v>0.01475382356552606</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.05859806860763287</v>
+        <v>0.009957902517948465</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.04937810762543295</v>
+        <v>0.02602106896622889</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.04984922249501723</v>
+        <v>0.018528909480952</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.05378177914369545</v>
+        <v>0.004168564782773889</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.04833808136790964</v>
+        <v>0.01833444520403362</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.06514625626514924</v>
+        <v>0.01901175476599676</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.05412721352042933</v>
+        <v>0.01397696266914342</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.04791257721411096</v>
+        <v>0.02146177027191087</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.08538953714972211</v>
+        <v>0.0170104711495047</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.04127566109792983</v>
+        <v>0.007451948423738862</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.07323168199624151</v>
+        <v>0.01281231476665816</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.05858261173875334</v>
+        <v>0.05951748973749577</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.06662251857016285</v>
+        <v>0.007048804059583384</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.06445083034476877</v>
+        <v>0.01204211650135184</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.06759027530289902</v>
+        <v>0.02239668229297618</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.05351165316951876</v>
+        <v>0.02083349044073498</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.06378875276166759</v>
+        <v>0.003406602431886248</v>
       </c>
     </row>
   </sheetData>
